--- a/results/mp/deberta/corona/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
@@ -130,12 +130,12 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
@@ -148,10 +148,10 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>safety</t>
   </si>
   <si>
     <t>save</t>
@@ -1527,25 +1527,25 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.6536796536796536</v>
+        <v>0.6524822695035462</v>
       </c>
       <c r="L26">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="M26">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1553,25 +1553,25 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.6524822695035462</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L27">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="M27">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1683,25 +1683,25 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5379939209726444</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L32">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1709,13 +1709,13 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.5294117647058824</v>
+        <v>0.5205882352941177</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="10:17">
